--- a/data/input/cnv_data.xlsx
+++ b/data/input/cnv_data.xlsx
@@ -92,7 +92,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -831,7 +831,7 @@
     <t>WP5510</t>
   </si>
   <si>
-    <t xml:space="preserve">16p12.2 </t>
+    <t>16p12.2</t>
   </si>
   <si>
     <t>Chr16:21950135-22431889</t>
@@ -1026,7 +1026,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1206,7 +1206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,12 +1222,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1329,6 +1335,9 @@
   <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1344,6 +1353,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1365,21 +1377,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1693,1005 +1699,1005 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="41.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="41.14785714285715" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="19" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="40.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="156.75">
-      <c r="A2" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="171.75">
+      <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75">
-      <c r="A3" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60.75">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
-      <c r="A6" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
-      <c r="A9" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33.75">
+      <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60.75">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60.75">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="45.75">
-      <c r="A13" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="47.25">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="58.5">
-      <c r="A14" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="60.75">
+      <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="160.95">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="53.4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="133.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="11" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="11" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="47.4">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="92.40000000000002">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="29.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="10" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="10" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="16"/>
+      <c r="J28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="16"/>
+      <c r="J29" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="11" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="69">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="10" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="10" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="16"/>
+      <c r="J32" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="10" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="11" t="s">
+      <c r="I33" s="16"/>
+      <c r="J33" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="10" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="11" t="s">
+      <c r="I36" s="16"/>
+      <c r="J36" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2711,271 +2717,271 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="102.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="102.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75.75">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.95">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="61.95000000000001">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="45.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="76.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="45">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="35.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="68.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="160.95">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="53.4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="51.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="92.40000000000002">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="29.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="69">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2995,43 +3001,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/input/cnv_data.xlsx
+++ b/data/input/cnv_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastrichtuniversity-my.sharepoint.com/personal/alexandra_valeanu_maastrichtuniversity_nl/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alexandra\cnv-data\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{567C6611-41D1-4180-B970-902BAF2F5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4591FAB5-4DD6-4032-90B2-32CA85E42DE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00C353-2AFC-47DD-9CA7-BBFCEA1102F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1632,8 +1632,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,7 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1668,6 +1667,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1977,7 +1980,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1988,8 @@
     <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.88671875" style="12" bestFit="1" customWidth="1"/>
@@ -2039,6 +2043,7 @@
       <c r="C2" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="8" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2093,6 +2098,7 @@
       <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="8" t="s">
         <v>84</v>
       </c>
@@ -2106,6 +2112,7 @@
       <c r="I4" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="J4" s="29"/>
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
@@ -2120,6 +2127,8 @@
       <c r="C5" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="8" t="s">
         <v>89</v>
       </c>
@@ -2146,6 +2155,8 @@
       <c r="C6" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="8" t="s">
         <v>92</v>
       </c>
@@ -2172,6 +2183,8 @@
       <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="8" t="s">
         <v>96</v>
       </c>
@@ -2273,6 +2286,7 @@
       <c r="C11" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
         <v>110</v>
       </c>
@@ -2286,6 +2300,7 @@
       <c r="I11" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2309,6 +2324,7 @@
       <c r="I12" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="J12" s="29"/>
       <c r="K12" s="9" t="s">
         <v>60</v>
       </c>
@@ -2346,6 +2362,8 @@
       <c r="C14" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="8" t="s">
         <v>123</v>
       </c>
@@ -2506,6 +2524,9 @@
       <c r="C20" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="8" t="s">
         <v>149</v>
       </c>
@@ -2515,6 +2536,7 @@
       <c r="I20" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="9" t="s">
         <v>50</v>
       </c>
@@ -2555,6 +2577,7 @@
       <c r="C22" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="D22" s="28"/>
       <c r="G22" s="8" t="s">
         <v>156</v>
       </c>
@@ -2595,7 +2618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
@@ -2686,6 +2709,8 @@
       <c r="C27" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="8" t="s">
         <v>174</v>
       </c>
@@ -2718,6 +2743,7 @@
       <c r="I28" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="J28" s="29"/>
       <c r="K28" s="9" t="s">
         <v>24</v>
       </c>
@@ -2732,6 +2758,7 @@
       <c r="C29" s="8" t="s">
         <v>180</v>
       </c>
+      <c r="D29" s="28"/>
       <c r="E29" s="8" t="s">
         <v>181</v>
       </c>
@@ -2745,6 +2772,7 @@
       <c r="I29" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="J29" s="29"/>
       <c r="K29" s="9" t="s">
         <v>8</v>
       </c>
@@ -2913,13 +2941,14 @@
       <c r="G36" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="16" t="s">
         <v>224</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="J36" s="29"/>
+      <c r="K36" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2950,7 +2979,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2999,538 +3028,538 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="27" customWidth="1"/>
-    <col min="3" max="4" width="40.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="34.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="26" customWidth="1"/>
+    <col min="3" max="4" width="40.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>240</v>
       </c>
     </row>

--- a/data/input/cnv_data.xlsx
+++ b/data/input/cnv_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alexandra\cnv-data\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00C353-2AFC-47DD-9CA7-BBFCEA1102F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12172C78-BF6D-4930-A08D-B7689949A6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="observations" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">cnv_input_table!$A$1:$K$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cnv_input_table!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="255">
   <si>
     <t xml:space="preserve">in my retrieved gene, but not in the wikipathways </t>
   </si>
@@ -228,15 +228,12 @@
     <t>2q37 copy number variation syndrome</t>
   </si>
   <si>
-    <t>TWIST2,HDAC4,HDAC4-AS1,LINC02991,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,AC104841.2,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,RTP5,FAM240C</t>
-  </si>
-  <si>
     <t>1p36 copy number variation syndrome</t>
   </si>
   <si>
-    <r>
-      <t>OR4F5,OR4F29,OR4F16,AL669831.1,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159,</t>
-    </r>
+    <t>8p23.1 copy number variation syndrome</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -245,23 +242,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TTLL10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
-    </r>
-  </si>
-  <si>
-    <t>8p23.1 copy number variation syndrome</t>
-  </si>
-  <si>
+      <t>PRAG1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINC02905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
+    </r>
+  </si>
+  <si>
+    <t>11p11.2 copy number variation syndrome</t>
+  </si>
+  <si>
+    <r>
+      <t>ALKBH3,C11orf96,</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -270,27 +291,910 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PRAG1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>ACCSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ACCS,EXT2,ALX4,CD82,TSPAN18,TP53I11,PRDM11,SYT13,CHST1,SLC35C1,CRY2,MAPK8IP1,</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>FREY1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,PEX16,LARGE2,PHF21A</t>
+    </r>
+  </si>
+  <si>
+    <t>10q11.21q11.23 copy number variation syndrome</t>
+  </si>
+  <si>
+    <r>
+      <t>FRMPD2,MAPK8,ARHGAP22,WDFY4,LRRC18,VSTM4,FAM170B,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TMEM273</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,C10orf71,DRGX,ERCC6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGBD3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CHAT,SLC18A3,C10orf53,OGDHL,PARG</t>
+    </r>
+  </si>
+  <si>
+    <t>TAR syndrome</t>
+  </si>
+  <si>
+    <t>HJV,TXNIP,POLR3GL,ANKRD34A,LIX1L,RBM8A,PEX11B,ITGA10,ANKRD35,PIAS3,NUDT17,POLR3C,RNF115,CD160,PDZK1,GPR89A</t>
+  </si>
+  <si>
+    <t>4p16.3 copy number variation</t>
+  </si>
+  <si>
+    <r>
+      <t>FAM53A,SLBP,TMEM129,TACC3,FGFR3,LETM1,NSD2,NELFA,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NICOL1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,NAT8L,POLN</t>
+    </r>
+  </si>
+  <si>
+    <t>NF1 copy number variation syndrome</t>
+  </si>
+  <si>
+    <t>CRLF3,ATAD5,TEFM,ADAP2,RNF135,NF1,OMG,EVI2B,EVI2A,RAB11FIP4,MIR365BHG,COPRS,UTP6,SUZ12</t>
+  </si>
+  <si>
+    <t>17p13.3 (YWHAE) copy number variation</t>
+  </si>
+  <si>
+    <t>YWHAE</t>
+  </si>
+  <si>
+    <t>5q35 copy number variation</t>
+  </si>
+  <si>
+    <t>SIMC1,KIAA1191,ARL10,NOP16,HIGD2A,CLTB,FAF2,RNF44,CDHR2,GPRIN1,SNCB,EIF4E1B,TSPAN17,UNC5A,HK3,UIMC1,ZNF346,FGFR4,NSD1,RAB24,MXD3,PRELID1,LMAN2,RGS14,SLC34A1,PFN3,F12,GRK6,PRR7,DBN1,PDLIM7,DOK3,DDX41,FAM193B,TMED9,B4GALT7</t>
+  </si>
+  <si>
+    <t>Smith-Magenis and Potocki-Lupski syndrome copy number variation</t>
+  </si>
+  <si>
+    <t>NPHP1 deletion syndrome</t>
+  </si>
+  <si>
+    <t>NPHP1</t>
+  </si>
+  <si>
+    <t>10q22q23 copy number variation</t>
+  </si>
+  <si>
+    <r>
+      <t>MAT1A,DYDC1,DYDC2,PRXL2A,TSPAN14,SH2D4B,NRG3,GHITM,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPR15LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CDHR1,LRIT2,LRIT1,RGR,CCSER2,GRID1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WAPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,OPN4,LDB3,BMPR1A,MMRN2,SNCG,ADIRF,FAM25A,GLUD1,SHLD2</t>
+    </r>
+  </si>
+  <si>
+    <t>13q12 or CRYL1 copy number variation</t>
+  </si>
+  <si>
+    <t>CRYL1</t>
+  </si>
+  <si>
+    <t>13q12.12 copy number variation</t>
+  </si>
+  <si>
+    <t>SGCG,SACS,TNFRSF19,MIPEP,C1QTNF9B,SPATA13,C1QTNF9</t>
+  </si>
+  <si>
+    <t>15q11q13 copy number variation</t>
+  </si>
+  <si>
+    <r>
+      <t>APBA2,ENTREP2,NSMCE3,TJP1,GOLGA8J,GOLGA8T,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHRFAM7A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,GOLGA8R,GOLGA8Q,GOLGA8H,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARHGAP11B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAN1,MTMR10,TRPM1,KLF13,OTUD7A,CHRNA7</t>
+    </r>
+  </si>
+  <si>
+    <t>15q25 copy number variation</t>
+  </si>
+  <si>
+    <t>CPEB1,AP3B2,FSD2,WHAMM,HOMER2,RAMAC,C15orf40,BTBD1,TM6SF1,HDGFL3,BNC1,SH3GL3,ADAMTSL3,GOLGA6L4,ZSCAN2,WDR73,NMB,SEC11A,ZNF592,ALPK3,SLC28A1,PDE8A</t>
+  </si>
+  <si>
+    <t>PAFAH1B1 copy number variation</t>
+  </si>
+  <si>
+    <t>PAFAH1B1</t>
+  </si>
+  <si>
+    <t>8q11.23 (RB1CC1) copy number variation</t>
+  </si>
+  <si>
+    <t>RB1CC1</t>
+  </si>
+  <si>
+    <t>16p13.11 copy number variation syndrome</t>
+  </si>
+  <si>
+    <t>BMERB1,MARF1,NDE1,MYH11,CEP20,ABCC1,ABCC6</t>
+  </si>
+  <si>
+    <t>locus</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>WP5345</t>
+  </si>
+  <si>
+    <t>1p36.33-p36.32</t>
+  </si>
+  <si>
+    <t>1p36.33-p36.32 deletion or duplication syndromes are a rare genetic disorders caused by a deletion or duplication of the most distal light band of the short arm of chromosome 1.</t>
+  </si>
+  <si>
+    <t>Chr1:0-2500000</t>
+  </si>
+  <si>
+    <t>1606(deletion),656279(duplication),96069(distal duplication)</t>
+  </si>
+  <si>
+    <t>WP5362</t>
+  </si>
+  <si>
+    <t>1q21.1</t>
+  </si>
+  <si>
+    <t>The distal 1q21.1 copy number variation syndrome can result in the loss or duplication of up to 20 protein-coding genes.</t>
+  </si>
+  <si>
+    <t>Chr1:145394955-145807817</t>
+  </si>
+  <si>
+    <t>250989(microdeletion),250994(microduplication)</t>
+  </si>
+  <si>
+    <t>WP4905</t>
+  </si>
+  <si>
+    <t>1q21.1-q21.2</t>
+  </si>
+  <si>
+    <t>The distal 1q21.1-q21.2 copy number variation syndrome can result in the loss or duplication of up to 7 protein-coding genes, leading to widespread effects on human development.</t>
+  </si>
+  <si>
+    <t>Chr1:146527987-147394444</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>WP5352</t>
+  </si>
+  <si>
+    <t>10q11.21-q11.23</t>
+  </si>
+  <si>
+    <t>Chr10:49390199-51058796</t>
+  </si>
+  <si>
+    <t>WP5402</t>
+  </si>
+  <si>
+    <t>10q23.1-q23.2</t>
+  </si>
+  <si>
+    <t>Chr10:82045472-88931651</t>
+  </si>
+  <si>
+    <t>276413(microdeletion),276422(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5348</t>
+  </si>
+  <si>
+    <t>11p11.2</t>
+  </si>
+  <si>
+    <t>Chr11:43940000-46020000</t>
+  </si>
+  <si>
+    <t>52022(deletion)</t>
+  </si>
+  <si>
+    <t>WP5405</t>
+  </si>
+  <si>
+    <t>13q12.11</t>
+  </si>
+  <si>
+    <t>Chr13:20977806-21100012</t>
+  </si>
+  <si>
+    <t>WP5406</t>
+  </si>
+  <si>
+    <t>13q12.12</t>
+  </si>
+  <si>
+    <t>Chr13:23555358-24884622</t>
+  </si>
+  <si>
+    <t>WP4940</t>
+  </si>
+  <si>
+    <t>15q11.2</t>
+  </si>
+  <si>
+    <t>Chr15:22805313-23094530</t>
+  </si>
+  <si>
+    <t>261183(microdeletion)</t>
+  </si>
+  <si>
+    <t>WP3998</t>
+  </si>
+  <si>
+    <t>15q11.2-q13.1</t>
+  </si>
+  <si>
+    <t>The 15q11.2-q13.1 copy number variation syndrome can result in the loss or duplication of up to 20 protein-coding genes, leading to widespread effects on human development. This region includes well-studied syndromes such as Prader-Willi and Angelman.</t>
+  </si>
+  <si>
+    <t>Chr15:22805313-28390339</t>
+  </si>
+  <si>
+    <t>739(deletion),72(deletion),261183(microdeletion),238446(microduplication),3306(inverted duplication)</t>
+  </si>
+  <si>
+    <t>WP5407</t>
+  </si>
+  <si>
+    <t>15q13.1-q13.3</t>
+  </si>
+  <si>
+    <t>Chr15:29161368-32462776</t>
+  </si>
+  <si>
+    <t>238446(microduplication)</t>
+  </si>
+  <si>
+    <t>WP4942</t>
+  </si>
+  <si>
+    <t>15q13.2-q13.3</t>
+  </si>
+  <si>
+    <t>Chr15:30500000-32500000</t>
+  </si>
+  <si>
+    <t>199318(microdeletion)</t>
+  </si>
+  <si>
+    <t>WP5408</t>
+  </si>
+  <si>
+    <t>15q25.2-q25.3</t>
+  </si>
+  <si>
+    <t>Chr15:83219735-85722039</t>
+  </si>
+  <si>
+    <t>WP5502</t>
+  </si>
+  <si>
+    <t>16p13.11</t>
+  </si>
+  <si>
+    <t>Copy number variations in the region 16p13.11 are risks for neuropsychiatric diseases like schizophrenia.</t>
+  </si>
+  <si>
+    <t>Chr16:15511655-16293689</t>
+  </si>
+  <si>
+    <t>261236(microdeletion),261243(microduplication)</t>
+  </si>
+  <si>
+    <t>16p12.2 copy number variation syndrome (520kb)</t>
+  </si>
+  <si>
+    <t>WP5510</t>
+  </si>
+  <si>
+    <t>Chr16:21950135-22431889</t>
+  </si>
+  <si>
+    <t>UQCRC2,PDZD9,MOSMO,VWA3A,SDR42E2,EEF2K,POLR3E,CDR2</t>
+  </si>
+  <si>
+    <t>485405(triplication)</t>
+  </si>
+  <si>
+    <t>WP4950</t>
+  </si>
+  <si>
+    <t>16p11.2</t>
+  </si>
+  <si>
+    <t>distal</t>
+  </si>
+  <si>
+    <t>Chr16:28823196-29046783</t>
+  </si>
+  <si>
+    <t>261222(microdeletion)</t>
+  </si>
+  <si>
+    <t>WP4949</t>
+  </si>
+  <si>
+    <t>proximal</t>
+  </si>
+  <si>
+    <t>Chr16:29592751-30190593</t>
+  </si>
+  <si>
+    <t>370079(microduplication),261197(microdeletion)</t>
+  </si>
+  <si>
+    <t>WP5376</t>
+  </si>
+  <si>
+    <t>17p13.3</t>
+  </si>
+  <si>
+    <t>Chr17:1247834-1303556</t>
+  </si>
+  <si>
+    <t>261257(microdeletion),531(deletion),217385(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5381</t>
+  </si>
+  <si>
+    <t>17p11.2</t>
+  </si>
+  <si>
+    <t>Chr17:16812771-20211017</t>
+  </si>
+  <si>
+    <t>819(microdeletion),1713(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5409</t>
+  </si>
+  <si>
+    <t>Chr17:2496949-2588909</t>
+  </si>
+  <si>
+    <t>531(deletion),217385(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5366</t>
+  </si>
+  <si>
+    <t>17q11.2</t>
+  </si>
+  <si>
+    <t>Chr17:29100000-30280000</t>
+  </si>
+  <si>
+    <t>97685(microdeletion),139474(microduplication)</t>
+  </si>
+  <si>
+    <t>17q12 copy number variation syndrome</t>
+  </si>
+  <si>
+    <t>WP5287</t>
+  </si>
+  <si>
+    <t>17q12</t>
+  </si>
+  <si>
+    <t>Chr17:34815904-36217432</t>
+  </si>
+  <si>
+    <t>ZNHIT3,MYO19,PIGW,GGNBP2,DHRS11,MRM1,LHX1,AATF,ACACA,C17orf78,TADA2A,DUSP14,SYNRG,DDX52,HNF1B</t>
+  </si>
+  <si>
+    <t>261265(microdeletion),261272(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5399</t>
+  </si>
+  <si>
+    <t>2q13</t>
+  </si>
+  <si>
+    <t>Chr2:110880926-110962590</t>
+  </si>
+  <si>
+    <t>WP5222</t>
+  </si>
+  <si>
+    <t>Chr2:111394040-112012649</t>
+  </si>
+  <si>
+    <t>WP5223</t>
+  </si>
+  <si>
+    <t>2q21.1</t>
+  </si>
+  <si>
+    <t>Chr2:131481308-131930677</t>
+  </si>
+  <si>
+    <t>WP5224</t>
+  </si>
+  <si>
+    <t>2q37.3</t>
+  </si>
+  <si>
+    <t>Chr2:239716679-243199373</t>
+  </si>
+  <si>
+    <t>1001(microdeletion)</t>
+  </si>
+  <si>
+    <t>WP5221</t>
+  </si>
+  <si>
+    <t>2q11.1-q11.2</t>
+  </si>
+  <si>
+    <t>Chr2:96742409-97677516</t>
+  </si>
+  <si>
+    <t>WP4657</t>
+  </si>
+  <si>
+    <t>22q11.21</t>
+  </si>
+  <si>
+    <t>The 22q11.2 copy number variation syndrome can result in the loss or duplication of up to 46 protein-coding genes, which have wide-spread effects on human development. In case of deletion, the loss of TBX1 is thought to be responsible for a large proportion of the 22q11.2DS phenotype, due its role in the development of the heart, thymus, thyroid, parathyroids and more.</t>
+  </si>
+  <si>
+    <t>Chr22:18912231-21465672</t>
+  </si>
+  <si>
+    <t>567(deletion),1727(duplication)</t>
+  </si>
+  <si>
+    <t>WP4906</t>
+  </si>
+  <si>
+    <t>3q29</t>
+  </si>
+  <si>
+    <t>3q29 copy number variation (duplication or deletion) is a rare genetic condition that results in a variety of psychiatric problems.</t>
+  </si>
+  <si>
+    <t>Chr3:195788299-197033296</t>
+  </si>
+  <si>
+    <t>65286(microdeletion),251038(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5365</t>
+  </si>
+  <si>
+    <t>4p16.3</t>
+  </si>
+  <si>
+    <t>Chr4:1552030-2091303</t>
+  </si>
+  <si>
+    <t>96072(microduplication)</t>
+  </si>
+  <si>
+    <t>WP5380</t>
+  </si>
+  <si>
+    <t>5q35.2-q35.3</t>
+  </si>
+  <si>
+    <t>Chr5:175720924-177052594</t>
+  </si>
+  <si>
+    <t>1627(deletion),228415(microduplication)</t>
+  </si>
+  <si>
+    <t>WP4932</t>
+  </si>
+  <si>
+    <t>7q11.23</t>
+  </si>
+  <si>
+    <t>Chr7:72744454-74142513</t>
+  </si>
+  <si>
+    <t>96121(microduplication),904(deletion)</t>
+  </si>
+  <si>
+    <t>7q11.23 distal copy number variation syndrome</t>
+  </si>
+  <si>
+    <t>WP5401</t>
+  </si>
+  <si>
+    <t>chr7:75138294-76064412</t>
+  </si>
+  <si>
+    <t>254351(distal microdeletion),261102(distal microduplication)</t>
+  </si>
+  <si>
+    <t>WP5412</t>
+  </si>
+  <si>
+    <t>8q11.23</t>
+  </si>
+  <si>
+    <t>Chr8:53535019-53626995</t>
+  </si>
+  <si>
+    <t>WP5346</t>
+  </si>
+  <si>
+    <t>8p23.1</t>
+  </si>
+  <si>
+    <t>Chr8:8098990-11872558</t>
+  </si>
+  <si>
+    <t>251076(duplication),251071(microdeletion)</t>
+  </si>
+  <si>
+    <t>genes_checked</t>
+  </si>
+  <si>
+    <r>
+      <t>FRMPD2,MAPK8,ARHGAP22,WDFY4,LRRC18,VSTM4,FAM170B,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TMEM273</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,C10orf71,DRGX,ERCC6,CHAT,SLC18A3,C10orf53,OGDHL,PARG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALKBH3,C11orf96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ACCS,EXT2,ALX4,CD82,TSPAN18,TP53I11,PRDM11,SYT13,CHST1,SLC35C1,CRY2,MAPK8IP1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FREY1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,PEX16,LARGE2,PHF21A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TUBGCP5,CYFIP1,NIPA2,NIPA1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,GOLGA8S,GOLGA6L2,MKRN3,MAGEL2,NDN,NPAP1,SNRPN,SNURF,UBE3A,ATP10A,GABRB3,GABRA5,GABRG3,OCA2,HERC2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>APBA2,ENTREP2,NSMCE3,TJP1,GOLGA8J,GOLGA8T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,GOLGA8R,GOLGA8Q,GOLGA8H,FAN1,MTMR10,TRPM1,KLF13,OTUD7A,CHRNA7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GPR148,AMER3,ARHGEF4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAM168B,PLEKHB2</t>
+    </r>
+  </si>
+  <si>
+    <t>Legend for the genes columns</t>
+  </si>
+  <si>
+    <t>in the hg38 but not in hg19</t>
+  </si>
+  <si>
+    <t>genes_checked: Genes from WikiPathways (hg19) validated against the latest HGNC annotations and cross-referenced with hg38 to confirm continued presence in corresponding genomic regions.</t>
+  </si>
+  <si>
+    <r>
+      <t>PRODH,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DGCR5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,DGCR2,ESS2,TSSK2,GSC2,SLC25A1,CLTCL1,HIRA,C22orf39,MRPL40,UFD1,CDC45,CLDN5,SEPTIN5,GP1BB,TBX1,GNB1L,RTL10,TXNRD2,COMT,ARVCF,TANGO2,DGCR8,TRMT2A,RANBP1,ZDHHC8,CCDC188,RTN4R,DGCR6L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAM230G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,USP41P,ZNF74,SCARF2,KLHL22,MED15,PI4KA,SERPIND1,SNAP29,CRKL,AIFM3,LZTR1,THAP7,P2RX6,SLC7A4,LRRC74B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C8orf12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAM167A,BLK,GATA4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LINC02905</t>
     </r>
     <r>
@@ -305,1045 +1209,7 @@
     </r>
   </si>
   <si>
-    <t>11p11.2 copy number variation syndrome</t>
-  </si>
-  <si>
-    <r>
-      <t>ALKBH3,C11orf96,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACCSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ACCS,EXT2,ALX4,CD82,TSPAN18,TP53I11,PRDM11,SYT13,CHST1,SLC35C1,CRY2,MAPK8IP1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FREY1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,PEX16,LARGE2,PHF21A</t>
-    </r>
-  </si>
-  <si>
-    <t>10q11.21q11.23 copy number variation syndrome</t>
-  </si>
-  <si>
-    <r>
-      <t>FRMPD2,MAPK8,ARHGAP22,WDFY4,LRRC18,VSTM4,FAM170B,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TMEM273</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,C10orf71,DRGX,ERCC6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PGBD3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,CHAT,SLC18A3,C10orf53,OGDHL,PARG</t>
-    </r>
-  </si>
-  <si>
-    <t>TAR syndrome</t>
-  </si>
-  <si>
-    <t>HJV,TXNIP,POLR3GL,ANKRD34A,LIX1L,RBM8A,PEX11B,ITGA10,ANKRD35,PIAS3,NUDT17,POLR3C,RNF115,CD160,PDZK1,GPR89A</t>
-  </si>
-  <si>
-    <t>4p16.3 copy number variation</t>
-  </si>
-  <si>
-    <r>
-      <t>FAM53A,SLBP,TMEM129,TACC3,FGFR3,LETM1,NSD2,NELFA,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NICOL1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,NAT8L,POLN</t>
-    </r>
-  </si>
-  <si>
-    <t>NF1 copy number variation syndrome</t>
-  </si>
-  <si>
-    <t>CRLF3,ATAD5,TEFM,ADAP2,RNF135,NF1,OMG,EVI2B,EVI2A,RAB11FIP4,MIR365BHG,COPRS,UTP6,SUZ12</t>
-  </si>
-  <si>
-    <t>17p13.3 (YWHAE) copy number variation</t>
-  </si>
-  <si>
-    <t>YWHAE</t>
-  </si>
-  <si>
-    <t>5q35 copy number variation</t>
-  </si>
-  <si>
-    <t>SIMC1,KIAA1191,ARL10,NOP16,HIGD2A,CLTB,FAF2,RNF44,CDHR2,GPRIN1,SNCB,EIF4E1B,TSPAN17,UNC5A,HK3,UIMC1,ZNF346,FGFR4,NSD1,RAB24,MXD3,PRELID1,LMAN2,RGS14,SLC34A1,PFN3,F12,GRK6,PRR7,DBN1,PDLIM7,DOK3,DDX41,FAM193B,TMED9,B4GALT7</t>
-  </si>
-  <si>
-    <t>Smith-Magenis and Potocki-Lupski syndrome copy number variation</t>
-  </si>
-  <si>
-    <r>
-      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DRC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHMT1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
-    </r>
-  </si>
-  <si>
-    <t>NPHP1 deletion syndrome</t>
-  </si>
-  <si>
-    <t>NPHP1</t>
-  </si>
-  <si>
-    <t>10q22q23 copy number variation</t>
-  </si>
-  <si>
-    <r>
-      <t>MAT1A,DYDC1,DYDC2,PRXL2A,TSPAN14,SH2D4B,NRG3,GHITM,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GPR15LG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,CDHR1,LRIT2,LRIT1,RGR,CCSER2,GRID1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WAPL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,OPN4,LDB3,BMPR1A,MMRN2,SNCG,ADIRF,FAM25A,GLUD1,SHLD2</t>
-    </r>
-  </si>
-  <si>
-    <t>13q12 or CRYL1 copy number variation</t>
-  </si>
-  <si>
-    <t>CRYL1</t>
-  </si>
-  <si>
-    <t>13q12.12 copy number variation</t>
-  </si>
-  <si>
-    <t>SGCG,SACS,TNFRSF19,MIPEP,C1QTNF9B,SPATA13,C1QTNF9</t>
-  </si>
-  <si>
-    <t>15q11q13 copy number variation</t>
-  </si>
-  <si>
-    <r>
-      <t>APBA2,ENTREP2,NSMCE3,TJP1,GOLGA8J,GOLGA8T,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CHRFAM7A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,GOLGA8R,GOLGA8Q,GOLGA8H,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARHGAP11B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,FAN1,MTMR10,TRPM1,KLF13,OTUD7A,CHRNA7</t>
-    </r>
-  </si>
-  <si>
-    <t>15q25 copy number variation</t>
-  </si>
-  <si>
-    <t>CPEB1,AP3B2,FSD2,WHAMM,HOMER2,RAMAC,C15orf40,BTBD1,TM6SF1,HDGFL3,BNC1,SH3GL3,ADAMTSL3,GOLGA6L4,ZSCAN2,WDR73,NMB,SEC11A,ZNF592,ALPK3,SLC28A1,PDE8A</t>
-  </si>
-  <si>
-    <t>PAFAH1B1 copy number variation</t>
-  </si>
-  <si>
-    <t>PAFAH1B1</t>
-  </si>
-  <si>
-    <t>8q11.23 (RB1CC1) copy number variation</t>
-  </si>
-  <si>
-    <t>RB1CC1</t>
-  </si>
-  <si>
-    <t>16p13.11 copy number variation syndrome</t>
-  </si>
-  <si>
-    <t>BMERB1,MARF1,NDE1,MYH11,CEP20,ABCC1,ABCC6</t>
-  </si>
-  <si>
-    <t>locus</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>WP5345</t>
-  </si>
-  <si>
-    <t>1p36.33-p36.32</t>
-  </si>
-  <si>
-    <t>1p36.33-p36.32 deletion or duplication syndromes are a rare genetic disorders caused by a deletion or duplication of the most distal light band of the short arm of chromosome 1.</t>
-  </si>
-  <si>
-    <t>Chr1:0-2500000</t>
-  </si>
-  <si>
-    <t>1606(deletion),656279(duplication),96069(distal duplication)</t>
-  </si>
-  <si>
-    <t>WP5362</t>
-  </si>
-  <si>
-    <t>1q21.1</t>
-  </si>
-  <si>
-    <t>The distal 1q21.1 copy number variation syndrome can result in the loss or duplication of up to 20 protein-coding genes.</t>
-  </si>
-  <si>
-    <t>Chr1:145394955-145807817</t>
-  </si>
-  <si>
-    <t>250989(microdeletion),250994(microduplication)</t>
-  </si>
-  <si>
-    <t>WP4905</t>
-  </si>
-  <si>
-    <t>1q21.1-q21.2</t>
-  </si>
-  <si>
-    <t>The distal 1q21.1-q21.2 copy number variation syndrome can result in the loss or duplication of up to 7 protein-coding genes, leading to widespread effects on human development.</t>
-  </si>
-  <si>
-    <t>Chr1:146527987-147394444</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>WP5352</t>
-  </si>
-  <si>
-    <t>10q11.21-q11.23</t>
-  </si>
-  <si>
-    <t>Chr10:49390199-51058796</t>
-  </si>
-  <si>
-    <t>WP5402</t>
-  </si>
-  <si>
-    <t>10q23.1-q23.2</t>
-  </si>
-  <si>
-    <t>Chr10:82045472-88931651</t>
-  </si>
-  <si>
-    <t>276413(microdeletion),276422(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5348</t>
-  </si>
-  <si>
-    <t>11p11.2</t>
-  </si>
-  <si>
-    <t>Chr11:43940000-46020000</t>
-  </si>
-  <si>
-    <t>52022(deletion)</t>
-  </si>
-  <si>
-    <t>WP5405</t>
-  </si>
-  <si>
-    <t>13q12.11</t>
-  </si>
-  <si>
-    <t>Chr13:20977806-21100012</t>
-  </si>
-  <si>
-    <t>WP5406</t>
-  </si>
-  <si>
-    <t>13q12.12</t>
-  </si>
-  <si>
-    <t>Chr13:23555358-24884622</t>
-  </si>
-  <si>
-    <t>WP4940</t>
-  </si>
-  <si>
-    <t>15q11.2</t>
-  </si>
-  <si>
-    <t>Chr15:22805313-23094530</t>
-  </si>
-  <si>
-    <t>261183(microdeletion)</t>
-  </si>
-  <si>
-    <t>WP3998</t>
-  </si>
-  <si>
-    <t>15q11.2-q13.1</t>
-  </si>
-  <si>
-    <t>The 15q11.2-q13.1 copy number variation syndrome can result in the loss or duplication of up to 20 protein-coding genes, leading to widespread effects on human development. This region includes well-studied syndromes such as Prader-Willi and Angelman.</t>
-  </si>
-  <si>
-    <t>Chr15:22805313-28390339</t>
-  </si>
-  <si>
-    <t>739(deletion),72(deletion),261183(microdeletion),238446(microduplication),3306(inverted duplication)</t>
-  </si>
-  <si>
-    <t>WP5407</t>
-  </si>
-  <si>
-    <t>15q13.1-q13.3</t>
-  </si>
-  <si>
-    <t>Chr15:29161368-32462776</t>
-  </si>
-  <si>
-    <t>238446(microduplication)</t>
-  </si>
-  <si>
-    <t>WP4942</t>
-  </si>
-  <si>
-    <t>15q13.2-q13.3</t>
-  </si>
-  <si>
-    <t>Chr15:30500000-32500000</t>
-  </si>
-  <si>
-    <t>199318(microdeletion)</t>
-  </si>
-  <si>
-    <t>WP5408</t>
-  </si>
-  <si>
-    <t>15q25.2-q25.3</t>
-  </si>
-  <si>
-    <t>Chr15:83219735-85722039</t>
-  </si>
-  <si>
-    <t>WP5502</t>
-  </si>
-  <si>
-    <t>16p13.11</t>
-  </si>
-  <si>
-    <t>Copy number variations in the region 16p13.11 are risks for neuropsychiatric diseases like schizophrenia.</t>
-  </si>
-  <si>
-    <t>Chr16:15511655-16293689</t>
-  </si>
-  <si>
-    <t>261236(microdeletion),261243(microduplication)</t>
-  </si>
-  <si>
-    <t>16p12.2 copy number variation syndrome (520kb)</t>
-  </si>
-  <si>
-    <t>WP5510</t>
-  </si>
-  <si>
-    <t>Chr16:21950135-22431889</t>
-  </si>
-  <si>
-    <t>UQCRC2,PDZD9,MOSMO,VWA3A,SDR42E2,EEF2K,POLR3E,CDR2</t>
-  </si>
-  <si>
-    <t>485405(triplication)</t>
-  </si>
-  <si>
-    <t>WP4950</t>
-  </si>
-  <si>
-    <t>16p11.2</t>
-  </si>
-  <si>
-    <t>distal</t>
-  </si>
-  <si>
-    <t>Chr16:28823196-29046783</t>
-  </si>
-  <si>
-    <t>261222(microdeletion)</t>
-  </si>
-  <si>
-    <t>WP4949</t>
-  </si>
-  <si>
-    <t>proximal</t>
-  </si>
-  <si>
-    <t>Chr16:29592751-30190593</t>
-  </si>
-  <si>
-    <t>370079(microduplication),261197(microdeletion)</t>
-  </si>
-  <si>
-    <t>WP5376</t>
-  </si>
-  <si>
-    <t>17p13.3</t>
-  </si>
-  <si>
-    <t>Chr17:1247834-1303556</t>
-  </si>
-  <si>
-    <t>261257(microdeletion),531(deletion),217385(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5381</t>
-  </si>
-  <si>
-    <t>17p11.2</t>
-  </si>
-  <si>
-    <t>Chr17:16812771-20211017</t>
-  </si>
-  <si>
-    <t>819(microdeletion),1713(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5409</t>
-  </si>
-  <si>
-    <t>Chr17:2496949-2588909</t>
-  </si>
-  <si>
-    <t>531(deletion),217385(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5366</t>
-  </si>
-  <si>
-    <t>17q11.2</t>
-  </si>
-  <si>
-    <t>Chr17:29100000-30280000</t>
-  </si>
-  <si>
-    <t>97685(microdeletion),139474(microduplication)</t>
-  </si>
-  <si>
-    <t>17q12 copy number variation syndrome</t>
-  </si>
-  <si>
-    <t>WP5287</t>
-  </si>
-  <si>
-    <t>17q12</t>
-  </si>
-  <si>
-    <t>Chr17:34815904-36217432</t>
-  </si>
-  <si>
-    <t>ZNHIT3,MYO19,PIGW,GGNBP2,DHRS11,MRM1,LHX1,AATF,ACACA,C17orf78,TADA2A,DUSP14,SYNRG,DDX52,HNF1B</t>
-  </si>
-  <si>
-    <t>261265(microdeletion),261272(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5399</t>
-  </si>
-  <si>
-    <t>2q13</t>
-  </si>
-  <si>
-    <t>Chr2:110880926-110962590</t>
-  </si>
-  <si>
-    <t>WP5222</t>
-  </si>
-  <si>
-    <t>Chr2:111394040-112012649</t>
-  </si>
-  <si>
-    <t>WP5223</t>
-  </si>
-  <si>
-    <t>2q21.1</t>
-  </si>
-  <si>
-    <t>Chr2:131481308-131930677</t>
-  </si>
-  <si>
-    <t>WP5224</t>
-  </si>
-  <si>
-    <t>2q37.3</t>
-  </si>
-  <si>
-    <t>Chr2:239716679-243199373</t>
-  </si>
-  <si>
-    <t>1001(microdeletion)</t>
-  </si>
-  <si>
-    <t>WP5221</t>
-  </si>
-  <si>
-    <t>2q11.1-q11.2</t>
-  </si>
-  <si>
-    <t>Chr2:96742409-97677516</t>
-  </si>
-  <si>
-    <t>WP4657</t>
-  </si>
-  <si>
-    <t>22q11.21</t>
-  </si>
-  <si>
-    <t>The 22q11.2 copy number variation syndrome can result in the loss or duplication of up to 46 protein-coding genes, which have wide-spread effects on human development. In case of deletion, the loss of TBX1 is thought to be responsible for a large proportion of the 22q11.2DS phenotype, due its role in the development of the heart, thymus, thyroid, parathyroids and more.</t>
-  </si>
-  <si>
-    <t>Chr22:18912231-21465672</t>
-  </si>
-  <si>
-    <t>567(deletion),1727(duplication)</t>
-  </si>
-  <si>
-    <t>WP4906</t>
-  </si>
-  <si>
-    <t>3q29</t>
-  </si>
-  <si>
-    <t>3q29 copy number variation (duplication or deletion) is a rare genetic condition that results in a variety of psychiatric problems.</t>
-  </si>
-  <si>
-    <t>Chr3:195788299-197033296</t>
-  </si>
-  <si>
-    <t>65286(microdeletion),251038(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5365</t>
-  </si>
-  <si>
-    <t>4p16.3</t>
-  </si>
-  <si>
-    <t>Chr4:1552030-2091303</t>
-  </si>
-  <si>
-    <t>96072(microduplication)</t>
-  </si>
-  <si>
-    <t>WP5380</t>
-  </si>
-  <si>
-    <t>5q35.2-q35.3</t>
-  </si>
-  <si>
-    <t>Chr5:175720924-177052594</t>
-  </si>
-  <si>
-    <t>1627(deletion),228415(microduplication)</t>
-  </si>
-  <si>
-    <t>WP4932</t>
-  </si>
-  <si>
-    <t>7q11.23</t>
-  </si>
-  <si>
-    <t>Chr7:72744454-74142513</t>
-  </si>
-  <si>
-    <t>96121(microduplication),904(deletion)</t>
-  </si>
-  <si>
-    <t>7q11.23 distal copy number variation syndrome</t>
-  </si>
-  <si>
-    <t>WP5401</t>
-  </si>
-  <si>
-    <t>chr7:75138294-76064412</t>
-  </si>
-  <si>
-    <t>HIP1,CCL26,CCL24,RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
-  </si>
-  <si>
-    <t>254351(distal microdeletion),261102(distal microduplication)</t>
-  </si>
-  <si>
-    <t>WP5412</t>
-  </si>
-  <si>
-    <t>8q11.23</t>
-  </si>
-  <si>
-    <t>Chr8:53535019-53626995</t>
-  </si>
-  <si>
-    <t>WP5346</t>
-  </si>
-  <si>
-    <t>8p23.1</t>
-  </si>
-  <si>
-    <t>Chr8:8098990-11872558</t>
-  </si>
-  <si>
-    <t>251076(duplication),251071(microdeletion)</t>
-  </si>
-  <si>
-    <t>genes_checked</t>
-  </si>
-  <si>
-    <r>
-      <t>OR4F5,OR4F29,OR4F16,AL669831.1,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FRMPD2,MAPK8,ARHGAP22,WDFY4,LRRC18,VSTM4,FAM170B,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TMEM273</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,C10orf71,DRGX,ERCC6,CHAT,SLC18A3,C10orf53,OGDHL,PARG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ALKBH3,C11orf96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ACCS,EXT2,ALX4,CD82,TSPAN18,TP53I11,PRDM11,SYT13,CHST1,SLC35C1,CRY2,MAPK8IP1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FREY1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,PEX16,LARGE2,PHF21A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TUBGCP5,CYFIP1,NIPA2,NIPA1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,GOLGA8S,GOLGA6L2,MKRN3,MAGEL2,NDN,NPAP1,SNRPN,SNURF,UBE3A,ATP10A,GABRB3,GABRA5,GABRG3,OCA2,HERC2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>APBA2,ENTREP2,NSMCE3,TJP1,GOLGA8J,GOLGA8T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,GOLGA8R,GOLGA8Q,GOLGA8H,FAN1,MTMR10,TRPM1,KLF13,OTUD7A,CHRNA7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GPR148,AMER3,ARHGEF4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,FAM168B,PLEKHB2</t>
-    </r>
-  </si>
-  <si>
-    <t>Legend for the genes columns</t>
-  </si>
-  <si>
-    <t>in the hg38 but not in hg19</t>
-  </si>
-  <si>
-    <t>genes_checked: Genes from WikiPathways (hg19) validated against the latest HGNC annotations and cross-referenced with hg38 to confirm continued presence in corresponding genomic regions.</t>
-  </si>
-  <si>
-    <r>
-      <t>PRODH,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DGCR5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,DGCR2,ESS2,TSSK2,GSC2,SLC25A1,CLTCL1,HIRA,C22orf39,MRPL40,UFD1,CDC45,CLDN5,SEPTIN5,GP1BB,TBX1,GNB1L,RTL10,TXNRD2,COMT,ARVCF,TANGO2,DGCR8,TRMT2A,RANBP1,ZDHHC8,CCDC188,RTN4R,DGCR6L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,FAM230G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,USP41P,ZNF74,SCARF2,KLHL22,MED15,PI4KA,SERPIND1,SNAP29,CRKL,AIFM3,LZTR1,THAP7,P2RX6,SLC7A4,LRRC74B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C8orf12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,FAM167A,BLK,GATA4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINC02905</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
-    </r>
-  </si>
-  <si>
     <t>16p12.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRAG1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINC02905</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
-    </r>
   </si>
   <si>
     <t>pathway_name</t>
@@ -1384,9 +1250,6 @@
     <t>• Missing GOLGA6L26 gene</t>
   </si>
   <si>
-    <t>• Missing SMIM39 gene that is in hg38, but not in hg19</t>
-  </si>
-  <si>
     <t>• Has an extra gene, DGCR5, that is not in hg38
 • Missing GGTLC3 and RIMBP3 genes</t>
   </si>
@@ -1400,13 +1263,436 @@
   </si>
   <si>
     <t>wikipathways_id</t>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+  </si>
+  <si>
+    <t>The pathway in WikiPathways is incorrect (wrong coordinates). Needs correction.</t>
+  </si>
+  <si>
+    <t>• Missing SMIM39 gene that is in hg38, but not in hg19. In Wikipatwhays the coordinates are wornh. It should stop at the first line with PLEKHB2 gene</t>
+  </si>
+  <si>
+    <t>The pathways in WikiPathways starts from way outside the breakline. It misses two genes (HDAC4-AS1,LINC02991) and it doesn't contain FAM240 gene.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HIP1,CCL26,CCL24,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+    </r>
+  </si>
+  <si>
+    <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HIP1,CCL26,CCL24,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+    </r>
+  </si>
+  <si>
+    <t>In WikiPathways contains more genes that needed.</t>
+  </si>
+  <si>
+    <t>Missing 3 genes (HIP1,CCL26,CCL24)</t>
+  </si>
+  <si>
+    <t>This pathway is imcomplete. It stops at SHMT1 gene.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINC02905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRAG1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C8orf12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAM167A,BLK,GATA4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINC02905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTLL10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HDAC4-AS1,LINC02991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAM240C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1778,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1585,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1667,10 +1972,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,8 +2280,8 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,92 +2301,91 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="28"/>
+        <v>70</v>
+      </c>
       <c r="E2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,164 +2393,156 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="28"/>
+        <v>80</v>
+      </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="29"/>
+        <v>83</v>
+      </c>
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+        <v>85</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,19 +2550,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>16</v>
@@ -2281,52 +2573,49 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>106</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="29"/>
+        <v>109</v>
+      </c>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="29"/>
       <c r="K12" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,19 +2623,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>18</v>
@@ -2354,86 +2643,84 @@
     </row>
     <row r="14" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+        <v>119</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2441,22 +2728,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>22</v>
@@ -2467,22 +2754,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>20</v>
@@ -2490,184 +2777,179 @@
     </row>
     <row r="19" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="K19" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="29"/>
       <c r="K20" s="9" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="G22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="K22" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>26</v>
@@ -2678,101 +2960,96 @@
         <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="K27" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="29"/>
+        <v>83</v>
+      </c>
       <c r="K28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="28"/>
+        <v>177</v>
+      </c>
       <c r="E29" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" s="29"/>
+        <v>180</v>
+      </c>
       <c r="K29" s="9" t="s">
         <v>8</v>
       </c>
@@ -2782,75 +3059,75 @@
         <v>11</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="J31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="H32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="K32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -2858,19 +3135,19 @@
         <v>13</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>14</v>
@@ -2878,81 +3155,81 @@
     </row>
     <row r="34" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="K34" s="12" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H36" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="29"/>
       <c r="K36" s="16" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2965,7 +3242,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,18 +3252,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3022,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2673D-DE78-4B97-8161-A25BF570670F}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,50 +3314,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3088,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>10</v>
@@ -3099,78 +3376,78 @@
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3178,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>16</v>
@@ -3192,30 +3469,30 @@
         <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3223,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>18</v>
@@ -3234,44 +3511,44 @@
     </row>
     <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="D16" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3279,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
@@ -3293,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>20</v>
@@ -3301,92 +3578,98 @@
       <c r="D18" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="E18" s="26" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>50</v>
+        <v>254</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>162</v>
-      </c>
       <c r="D23" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3394,13 +3677,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>26</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3408,10 +3694,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>28</v>
@@ -3420,18 +3706,21 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>30</v>
+        <v>252</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3439,7 +3728,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>24</v>
@@ -3453,16 +3742,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3470,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>12</v>
@@ -3481,30 +3770,30 @@
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3512,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>14</v>
@@ -3523,44 +3812,50 @@
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>204</v>
+        <v>241</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/cnv_data.xlsx
+++ b/data/input/cnv_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alexandra\cnv-data\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12172C78-BF6D-4930-A08D-B7689949A6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF571D-4BCC-409D-A448-5F7A5F2993DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cnv_input_table" sheetId="1" r:id="rId1"/>
@@ -1254,438 +1254,409 @@
 • Missing GGTLC3 and RIMBP3 genes</t>
   </si>
   <si>
+    <t xml:space="preserve">•  17q12 copy number variation syndrome does not have a good pathways. Only has the genes and the associated pathways, but no PPI interaction added. </t>
+  </si>
+  <si>
+    <t>wikipathways_id</t>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+  </si>
+  <si>
+    <t>The pathway in WikiPathways is incorrect (wrong coordinates). Needs correction.</t>
+  </si>
+  <si>
+    <t>• Missing SMIM39 gene that is in hg38, but not in hg19. In Wikipatwhays the coordinates are wornh. It should stop at the first line with PLEKHB2 gene</t>
+  </si>
+  <si>
+    <t>The pathways in WikiPathways starts from way outside the breakline. It misses two genes (HDAC4-AS1,LINC02991) and it doesn't contain FAM240 gene.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HIP1,CCL26,CCL24,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+    </r>
+  </si>
+  <si>
+    <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HIP1,CCL26,CCL24,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
+    </r>
+  </si>
+  <si>
+    <t>In WikiPathways contains more genes that needed.</t>
+  </si>
+  <si>
+    <t>Missing 3 genes (HIP1,CCL26,CCL24)</t>
+  </si>
+  <si>
+    <t>This pathway is imcomplete. It stops at SHMT1 gene.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRAG1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C8orf12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,FAM167A,BLK,GATA4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINC02905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTLL10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HDAC4-AS1,LINC02991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTP5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAM240C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHMT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
+    </r>
+  </si>
+  <si>
+    <t>CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
+  </si>
+  <si>
     <t>• Missing PRAG1 gene
-• Has an extra gene, C8orf12, that is not in hg38
-• C8orf49 changed name into LINC02905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•  17q12 copy number variation syndrome does not have a good pathways. Only has the genes and the associated pathways, but no PPI interaction added. </t>
-  </si>
-  <si>
-    <t>wikipathways_id</t>
-  </si>
-  <si>
-    <r>
-      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DRC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHMT1</t>
-    </r>
-  </si>
-  <si>
-    <t>The pathway in WikiPathways is incorrect (wrong coordinates). Needs correction.</t>
-  </si>
-  <si>
-    <t>• Missing SMIM39 gene that is in hg38, but not in hg19. In Wikipatwhays the coordinates are wornh. It should stop at the first line with PLEKHB2 gene</t>
-  </si>
-  <si>
-    <t>The pathways in WikiPathways starts from way outside the breakline. It misses two genes (HDAC4-AS1,LINC02991) and it doesn't contain FAM240 gene.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HIP1,CCL26,CCL24,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
-    </r>
-  </si>
-  <si>
-    <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HIP1,CCL26,CCL24,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RHBDD2,POR,TMEM120A,STYXL1,MDH2,SRRM3,HSPB1,YWHAG,SSC4D,ZP3</t>
-    </r>
-  </si>
-  <si>
-    <t>In WikiPathways contains more genes that needed.</t>
-  </si>
-  <si>
-    <t>Missing 3 genes (HIP1,CCL26,CCL24)</t>
-  </si>
-  <si>
-    <t>This pathway is imcomplete. It stops at SHMT1 gene.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,FAM167A,BLK,GATA4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINC02905</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRAG1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,CLDN23,MFHAS1,ERI1,PPP1R3B,TNKS,MSRA,PRSS55,RP1L1,C8orf74,SOX7,PINX1,XKR6,MTMR9,SLC35G5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C8orf12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,FAM167A,BLK,GATA4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINC02905</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,NEIL2,FDFT1,CTSB,DEFB136,DEFB135,DEFB134</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OR4F5,OR4F29,OR4F16,SAMD11,NOC2L,KLHL17,PLEKHN1,PERM1,HES4,ISG15,AGRN,RNF223,C1orf159,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TTLL10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,TNFRSF18,TNFRSF4,SDF4,B3GALT6,C1QTNF12,UBE2J2,SCNN1D,ACAP3,PUSL1,INTS11,CPTP,TAS1R3,DVL1,MXRA8,AURKAIP1,CCNL2,MRPL20,ANKRD65,TMEM278,VWA1,ATAD3C,ATAD3B,ATAD3A,TMEM240,SSU72,FNDC10,MIB2,MMP23B,CDK11B,SLC35E2B,CDK11A,NADK,GNB1,CALML6,TMEM52,CFAP74,GABRD,PRKCZ,FAAP20,SKI,MORN1,RER1,PEX10,PLCH2,PANK4,HES5,TNFRSF14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RTP5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TWIST2,HDAC4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HDAC4-AS1,LINC02991</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RTP5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TWIST2,HDAC4,NDUFA10,OR6B2,PRR21,OR6B3,COPS9,OTOS,GPC1,GPC1-AS1,ANKMY1,DUSP28,RNPEPL1,CAPN10,GPR35,AQP12B,AQP12A,KIF1A,AGXT,MAB21L4,CROCC2,SNED1,MTERF4,PASK,PPP1R7,ANO7,HDLBP,SEPTIN2,FARP2,STK25,BOK,THAP4,ATG4B,DTYMK,ING5,D2HGDH,GAL3ST2,NEU4,PDCD1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RTP5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>FAM240C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DRC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHMT1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TNFRSF13B,MPRIP,PLD6,FLCN,COPS3,NT5M,MED9,RASD1,PEMT,RAI1,SREBF1,TOM1L2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DRC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,ATPAF2,GID4,DRG2,MYO15A,ALKBH5,LLGL1,FLII,MIEF2,TOP3A,SMCR8,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHMT1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVPLL,LGALS9C,TBC1D28,TRIM16L,FBXW10,TVP23B,PRPSAP2,SLC5A10,FAM83G,GRAP,LOC102724624,GRAPL,GRAPL-AS1,EPN2,B9D1,MAPK7,MFAP4,RNF112,SLC47A1,ALDH3A2,SLC47A2,ALDH3A1,ULK2,AKAP10,SPECC1</t>
-    </r>
+• Has an extra RNA, long non-coding, C8orf12. 
+• C8orf49 changed name into LINC02905. But it's not a protein codin gene.</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1972,6 +1943,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2280,8 +2254,8 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2278,7 @@
         <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>66</v>
@@ -2352,13 +2326,13 @@
         <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2815,13 +2789,13 @@
         <v>146</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>147</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2995,13 +2969,13 @@
         <v>171</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>172</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3170,13 +3144,13 @@
         <v>200</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>201</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3218,14 +3192,14 @@
       <c r="G36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>246</v>
+      <c r="H36" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>208</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3299,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2673D-DE78-4B97-8161-A25BF570670F}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,10 +3311,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>228</v>
@@ -3579,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,13 +3578,13 @@
         <v>144</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3655,7 +3629,7 @@
         <v>159</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3686,7 +3660,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3703,7 +3677,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -3714,13 +3688,13 @@
         <v>169</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3818,13 +3792,13 @@
         <v>199</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3841,7 +3815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -3855,7 +3829,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
